--- a/biology/Zoologie/Calliprason_elegans/Calliprason_elegans.xlsx
+++ b/biology/Zoologie/Calliprason_elegans/Calliprason_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calliprason elegans est une espèce de coléoptères de la famille des Cerambycidae (sous-famille des Cerambycinae, tribu des Stenoderini). Elle est endémique de la Nouvelle-Zélande. La localité type est Tairua en Nouvelle-Zélande (péninsule de Coromandel).
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Calliprason elegans a été initialement décrite par David Sharp en 1877 sous le protonyme de Drotus elegans.
 </t>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) David Sharp, « Descriptions of a new genus and some new species of New Zealand Coleoptera », Entomologist's Monthly Magazine, Oxford, Pemberley Books (d) et Entomologist's Monthly Magazine Ltd. (d), vol. 13,‎ 1877, p. 190–196 (ISSN 0013-8908, OCLC 1568052, DOI 10.5962/BHL.PART.22828, lire en ligne)</t>
         </is>
